--- a/投资回报率.xlsx
+++ b/投资回报率.xlsx
@@ -27,32 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <r>
-      <t>债权投资（回报率：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="19"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="19"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>股权投资（回报率：倍数）</t>
   </si>
@@ -97,22 +72,45 @@
   </si>
   <si>
     <t>活期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票、私募、对冲、坐庄……</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>信托</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债权投资（回报率：%）</t>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票、私募、对冲、坐庄…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,49 +124,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="19"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="19"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -189,12 +149,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <charset val="136"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,49 +175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7F7F7F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB2A0C7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4BD97"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2D59B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92CCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,10 +314,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -395,95 +325,81 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -764,26 +680,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="K5" sqref="A2:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="10" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" customWidth="1"/>
-    <col min="19" max="19" width="0.1640625" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="2.83203125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="0.1640625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -794,220 +712,140 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:15" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="20" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" s="27" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
+        <v>0</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
+      <c r="L3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3">
+    <row r="4" spans="1:15" ht="36" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3">
+      <c r="D4" s="28"/>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3">
+      <c r="M4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3">
+      <c r="N4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="3">
+      <c r="O4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3">
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3">
-        <v>14</v>
-      </c>
-      <c r="P3" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="26"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="23" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y4" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="23" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="17"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="Q3:R5"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="A2:P2"/>
+  <mergeCells count="8">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
